--- a/src/test/resources/sample.xlsx
+++ b/src/test/resources/sample.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t xml:space="preserve">物理エンティティ名</t>
   </si>
@@ -90,14 +90,21 @@
   </si>
   <si>
     <t xml:space="preserve">name3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -173,12 +180,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,105 +221,108 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
+  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -324,113 +342,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:O6"/>
+  <dimension ref="A3:O7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
+  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
